--- a/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
+++ b/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\347-docker-swarm-wordpress\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd57mgs\Documents\GitHub\347-docker-swarm-wordpress\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49ED82-EE80-4709-99DE-25389A5595A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182815B1-75EF-4EDE-9AE5-CB55973C156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Auteur:</t>
   </si>
@@ -130,13 +130,22 @@
     <t>11.09.2024  à 13h10 au 09.10.2024 à 13h50</t>
   </si>
   <si>
-    <t>Simoes Lucas</t>
-  </si>
-  <si>
     <t>Docker Swarm Wordpress - 347</t>
   </si>
   <si>
     <t>Imprévu absent</t>
+  </si>
+  <si>
+    <t>lire la documentation et comprendre le projet</t>
+  </si>
+  <si>
+    <t>Lancer wordpress en local</t>
+  </si>
+  <si>
+    <t>J'ai eu des problèmes de versionning et des problèmes de communication entre nginx et wordpress</t>
+  </si>
+  <si>
+    <t>Simões Pólvora Lucas</t>
   </si>
 </sst>
 </file>
@@ -1079,13 +1088,13 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,16 +1937,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,7 +4132,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4160,7 +4169,7 @@
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
@@ -4168,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -4178,7 +4187,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>3 heures 0 minutes</v>
+        <v>4 heures 30 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4197,11 +4206,11 @@
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4252,19 +4261,27 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="73">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
+        <v>38</v>
+      </c>
+      <c r="B8" s="36">
+        <v>45553</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38">
+        <v>40</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="str">
-        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v/>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="28"/>
       <c r="G8" s="45"/>
       <c r="M8" t="s">
         <v>2</v>
@@ -4276,17 +4293,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="str">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="40">
+        <v>45553</v>
+      </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="46"/>
+      <c r="D9" s="42">
+        <v>50</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
@@ -10783,7 +10810,7 @@
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10804,11 +10831,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10816,11 +10843,11 @@
       </c>
       <c r="F7" s="55" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 00 min</v>
+        <v>0 h 50 min</v>
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10878,11 +10905,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9" s="23" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10890,11 +10917,11 @@
       </c>
       <c r="F9" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 00 min</v>
+        <v>0 h 40 min</v>
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10915,22 +10942,22 @@
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 00 min</v>
+        <v>4 h 30 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>3.4090909090909088E-2</v>
+        <v>5.113636363636364E-2</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>18</v>
@@ -10974,26 +11001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -11216,26 +11223,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11252,4 +11260,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
+++ b/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd57mgs\Documents\GitHub\347-docker-swarm-wordpress\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182815B1-75EF-4EDE-9AE5-CB55973C156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D349F76C-3CFC-4BC3-8EF4-C70B9B2FC693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Auteur:</t>
   </si>
@@ -146,6 +146,39 @@
   </si>
   <si>
     <t>Simões Pólvora Lucas</t>
+  </si>
+  <si>
+    <t>Connexion à une machine distante avec multipass</t>
+  </si>
+  <si>
+    <t>Lancer wordpress en local mais erreur car il ne trouve pas fichier .conf</t>
+  </si>
+  <si>
+    <t>Mise en place du docker swarm</t>
+  </si>
+  <si>
+    <t>Modification du docker compose pour l'adapter à swarm</t>
+  </si>
+  <si>
+    <t>Mauvaise connexion, changement en données mobiles</t>
+  </si>
+  <si>
+    <t>Nginx a une erreur lorsque je lance le docker stack deploy</t>
+  </si>
+  <si>
+    <t>Quelques replicas ne fonctionnent pas</t>
+  </si>
+  <si>
+    <t>Thomas vient à la rescousse, il change le volume pour qu'il trouve le fichier et désormais erreur 403</t>
+  </si>
+  <si>
+    <t>Essai de régler erreur 403 avec Thomas</t>
+  </si>
+  <si>
+    <t>Mise en place de forticlient dans un nouveau poste</t>
+  </si>
+  <si>
+    <t>Erreur file not found, lors du lancement de la stack</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1121,7 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1937,16 +1970,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.67407407407407405</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14814814814814814</c:v>
+                  <c:v>5.9259259259259262E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,9 +4163,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E2"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4187,7 +4220,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>4 heures 30 minutes</v>
+        <v>12 heures 15 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4202,15 +4235,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>270</v>
+        <v>735</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4325,15 +4358,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="str">
+      <c r="A10" s="73">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="B10" s="36">
+        <v>45558</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="38">
+        <v>20</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="45"/>
       <c r="M10" t="s">
         <v>3</v>
@@ -4346,15 +4387,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="74">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="B11" s="40">
+        <v>45558</v>
+      </c>
+      <c r="C11" s="41">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42">
+        <v>45</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="46"/>
       <c r="M11" t="s">
         <v>4</v>
@@ -4367,15 +4418,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="str">
+      <c r="A12" s="73">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="36">
+        <v>45558</v>
+      </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="38">
+        <v>30</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="45"/>
       <c r="N12">
         <v>5</v>
@@ -4385,15 +4444,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="74">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="40">
+        <v>45558</v>
+      </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="42">
+        <v>45</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="46"/>
       <c r="N13">
         <v>6</v>
@@ -4403,15 +4470,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="str">
+      <c r="A14" s="73">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="36">
+        <v>45565</v>
+      </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="38">
+        <v>10</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="N14">
         <v>7</v>
@@ -4421,16 +4496,28 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="str">
+      <c r="A15" s="74">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="B15" s="40">
+        <v>45565</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42">
+        <v>30</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="N15">
         <v>8</v>
       </c>
@@ -4438,72 +4525,104 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="str">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="36">
+        <v>45565</v>
+      </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="38">
+        <v>25</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="45"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="str">
+      <c r="A17" s="74">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="40">
+        <v>45565</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1</v>
+      </c>
       <c r="D17" s="42"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="46"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="str">
+      <c r="A18" s="73">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B18" s="36">
+        <v>45570</v>
+      </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="38">
+        <v>20</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="45"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="str">
+      <c r="A19" s="74">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+        <v>40</v>
+      </c>
+      <c r="B19" s="40">
+        <v>45570</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1</v>
+      </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="46"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="str">
+      <c r="A20" s="73">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="B20" s="36">
+        <v>45572</v>
+      </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
@@ -10810,7 +10929,7 @@
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0.66666666666666663</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10827,15 +10946,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10843,11 +10962,11 @@
       </c>
       <c r="F7" s="55" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 50 min</v>
+        <v>7 h 35 min</v>
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.18518518518518517</v>
+        <v>0.67407407407407405</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10921,7 +11040,7 @@
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>0.14814814814814814</v>
+        <v>5.9259259259259262E-2</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10938,26 +11057,26 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUM(A6:A9)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>270</v>
+        <v>675</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 30 min</v>
+        <v>11 h 15 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>5.113636363636364E-2</v>
+        <v>0.12784090909090909</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>18</v>
@@ -11001,6 +11120,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -11223,27 +11362,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11260,23 +11398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
+++ b/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd57mgs\Documents\GitHub\347-docker-swarm-wordpress\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D349F76C-3CFC-4BC3-8EF4-C70B9B2FC693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B45851-39CD-4F48-9AAB-6A0177CC61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Auteur:</t>
   </si>
@@ -179,6 +179,27 @@
   </si>
   <si>
     <t>Erreur file not found, lors du lancement de la stack</t>
+  </si>
+  <si>
+    <t>Faire le readme sur la suppression des stacks</t>
+  </si>
+  <si>
+    <t>Pour une fois aucun problème</t>
+  </si>
+  <si>
+    <t>Lier le volume NFS</t>
+  </si>
+  <si>
+    <t>Beaucoup de problèmes je ne sais point pourquoi</t>
+  </si>
+  <si>
+    <t>Résolution du problème file not found</t>
+  </si>
+  <si>
+    <t>Erreur de connexion à la db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'était un problème du volume NFS </t>
   </si>
 </sst>
 </file>
@@ -1121,13 +1142,13 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,16 +1991,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67407407407407405</c:v>
+                  <c:v>0.72988505747126442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9259259259259262E-2</c:v>
+                  <c:v>6.3218390804597707E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4165,7 +4186,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4220,7 +4241,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>12 heures 15 minutes</v>
+        <v>15 heures 30 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4235,15 +4256,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>735</v>
+        <v>930</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4624,45 +4645,83 @@
         <v>45572</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="45"/>
+      <c r="D20" s="38">
+        <v>15</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="str">
+      <c r="A21" s="74">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+        <v>41</v>
+      </c>
+      <c r="B21" s="40">
+        <v>45572</v>
+      </c>
+      <c r="C21" s="41">
+        <v>1</v>
+      </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="46"/>
+      <c r="E21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="str">
+      <c r="A22" s="73">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="45"/>
+        <v>41</v>
+      </c>
+      <c r="B22" s="36">
+        <v>45572</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <v>30</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="str">
+      <c r="A23" s="74">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="40">
+        <v>45572</v>
+      </c>
       <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="42">
+        <v>30</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -10929,7 +10988,7 @@
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0.26666666666666666</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10946,15 +11005,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>635</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10962,11 +11021,11 @@
       </c>
       <c r="F7" s="55" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>7 h 35 min</v>
+        <v>10 h 35 min</v>
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.67407407407407405</v>
+        <v>0.72988505747126442</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11024,11 +11083,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11036,11 +11095,11 @@
       </c>
       <c r="F9" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 40 min</v>
+        <v>0 h 55 min</v>
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>5.9259259259259262E-2</v>
+        <v>6.3218390804597707E-2</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11057,26 +11116,26 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUM(A6:A9)</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>675</v>
+        <v>870</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>11 h 15 min</v>
+        <v>14 h 30 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>0.12784090909090909</v>
+        <v>0.16477272727272727</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>18</v>
@@ -11120,26 +11179,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -11362,26 +11401,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11398,4 +11438,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
+++ b/documentation/Journal-de-Travail_Simoes-Lucas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd57mgs\Documents\GitHub\347-docker-swarm-wordpress\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B45851-39CD-4F48-9AAB-6A0177CC61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11AA7EA-2CC1-4642-9439-654BC7CDA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Auteur:</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t xml:space="preserve">C'était un problème du volume NFS </t>
+  </si>
+  <si>
+    <t>Installer swarmpit</t>
+  </si>
+  <si>
+    <t>Faire le readme pour la création des stacks</t>
+  </si>
+  <si>
+    <t>Il fallait recharger les volumes</t>
+  </si>
+  <si>
+    <t>L'erreur est revenue, et on l'a réglé</t>
+  </si>
+  <si>
+    <t>Régler un problème qui a surgit sur la création des services, elles ne se déployaient pas</t>
+  </si>
+  <si>
+    <t>Probablement on a modifié qqch sur le script sans faire exprès</t>
+  </si>
+  <si>
+    <t>Compléter le readme avec le défi et les différents éléments manquant</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1163,13 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>635</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,16 +2012,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20689655172413793</c:v>
+                  <c:v>0.17560975609756097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72988505747126442</c:v>
+                  <c:v>0.69268292682926824</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3218390804597707E-2</c:v>
+                  <c:v>0.13170731707317074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,8 +4206,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4241,7 +4262,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>15 heures 30 minutes</v>
+        <v>18 heures 5 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4256,15 +4277,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>390</v>
+        <v>485</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>930</v>
+        <v>1085</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4722,66 +4743,110 @@
       <c r="F23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="46" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="str">
+      <c r="A24" s="73">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="B24" s="36">
+        <v>45574</v>
+      </c>
       <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="38">
+        <v>15</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="str">
+      <c r="A25" s="74">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="40">
+        <v>45574</v>
+      </c>
       <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="42">
+        <v>20</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="str">
+      <c r="A26" s="73">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="B26" s="36">
+        <v>45574</v>
+      </c>
       <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="38">
+        <v>40</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="str">
+      <c r="A27" s="74">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="B27" s="40">
+        <v>45574</v>
+      </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="46"/>
+      <c r="D27" s="42">
+        <v>20</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="str">
+      <c r="A28" s="73">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="36">
+        <v>45595</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
       <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -10988,7 +11053,7 @@
       </c>
       <c r="G6" s="47">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0.20689655172413793</v>
+        <v>0.17560975609756097</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11009,11 +11074,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11021,11 +11086,11 @@
       </c>
       <c r="F7" s="55" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>10 h 35 min</v>
+        <v>11 h 50 min</v>
       </c>
       <c r="G7" s="56">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>0.72988505747126442</v>
+        <v>0.69268292682926824</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11079,15 +11144,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E9" s="23" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11095,11 +11160,11 @@
       </c>
       <c r="F9" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 55 min</v>
+        <v>2 h 15 min</v>
       </c>
       <c r="G9" s="56">
         <f t="shared" si="2"/>
-        <v>6.3218390804597707E-2</v>
+        <v>0.13170731707317074</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11116,26 +11181,26 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUM(A6:A9)</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>390</v>
+        <v>485</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>870</v>
+        <v>1025</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>14 h 30 min</v>
+        <v>17 h 05 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>0.16477272727272727</v>
+        <v>0.19412878787878787</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>18</v>
@@ -11179,6 +11244,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -11401,27 +11486,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11438,23 +11522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>